--- a/uploads/upload_file_format/upload_markets_format.xlsx
+++ b/uploads/upload_file_format/upload_markets_format.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp8.1.6\htdocs\laravel\edds\uploads\upload_file_format\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Market_Name_Eng</t>
   </si>
@@ -42,13 +37,16 @@
   </si>
   <si>
     <t xml:space="preserve">Latitude </t>
+  </si>
+  <si>
+    <t>SMS_Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +56,25 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color theme="0"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,12 +83,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,38 +104,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -129,9 +123,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,24 +422,27 @@
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
